--- a/common/LevelBg.xlsx
+++ b/common/LevelBg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>序号</t>
+    <t>章节ID</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">选项立绘id
+      <t xml:space="preserve">章节立绘id
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>关联scene</t>
@@ -44,6 +45,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>关联scene</t>
@@ -51,6 +53,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -59,6 +69,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -66,6 +77,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">remark </t>
     </r>
     <r>
@@ -74,6 +93,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>string</t>
@@ -89,6 +109,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -104,10 +125,23 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t>湖边</t>
+  </si>
+  <si>
+    <t>树林</t>
+  </si>
+  <si>
+    <t>厅堂</t>
+  </si>
+  <si>
+    <t>郊外</t>
   </si>
 </sst>
 </file>
@@ -115,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -138,6 +172,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -145,6 +186,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,44 +224,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,63 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,11 +307,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -294,10 +327,9 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +350,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -336,49 +428,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,115 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +549,80 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,80 +650,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -632,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,12 +1135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1154,24 +1180,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30004</v>
       </c>
     </row>
     <row r="7" spans="1:1">
